--- a/lectures/강의자료/워크시트_배당포트폴리오.xlsx
+++ b/lectures/강의자료/워크시트_배당포트폴리오.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GCC\git\ws_fn\lectures\강의자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdjhs\git\ws_fn\lectures\강의자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF84F2B-D1B1-4C50-9A0C-26EF564224A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60E50F4-F400-4367-B7FD-56C7AB8D459B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10044" tabRatio="766" xr2:uid="{3CE6A4AE-AFDE-492F-8072-98DC519E0F45}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="766" activeTab="1" xr2:uid="{3CE6A4AE-AFDE-492F-8072-98DC519E0F45}"/>
   </bookViews>
   <sheets>
     <sheet name="1.배당전략찾기" sheetId="3" r:id="rId1"/>
@@ -1172,19 +1172,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B51BC1-7D2E-4025-AF36-876ED5266D03}">
   <dimension ref="B1:L329"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="6" width="12.09765625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="6" width="12.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
@@ -1584,7 +1586,7 @@
       <c r="J30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="2:12" ht="18" thickBot="1">
+    <row r="31" spans="2:12" ht="17.25" thickBot="1">
       <c r="B31" s="20" t="s">
         <v>25</v>
       </c>
@@ -1605,7 +1607,7 @@
       <c r="J31" s="15"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="2:12" ht="18" thickTop="1">
+    <row r="32" spans="2:12" ht="17.25" thickTop="1">
       <c r="B32" s="22" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="18" thickBot="1">
+    <row r="42" spans="2:6" ht="17.25" thickBot="1">
       <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="18" thickTop="1">
+    <row r="43" spans="2:6" ht="17.25" thickTop="1">
       <c r="B43" s="22" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="18" thickBot="1">
+    <row r="53" spans="2:6" ht="17.25" thickBot="1">
       <c r="B53" s="20" t="s">
         <v>47</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18" thickTop="1">
+    <row r="54" spans="2:6" ht="17.25" thickTop="1">
       <c r="B54" s="22" t="s">
         <v>48</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>3.916E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="18" thickBot="1">
+    <row r="64" spans="2:6" ht="17.25" thickBot="1">
       <c r="B64" s="20" t="s">
         <v>47</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="18" thickTop="1">
+    <row r="65" spans="2:6" ht="17.25" thickTop="1">
       <c r="B65" s="22" t="s">
         <v>48</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>4.8610000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="18" thickBot="1">
+    <row r="75" spans="2:6" ht="17.25" thickBot="1">
       <c r="B75" s="20" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="18" thickTop="1">
+    <row r="76" spans="2:6" ht="17.25" thickTop="1">
       <c r="B76" s="22" t="s">
         <v>48</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>8.4700000000000018E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="18" thickBot="1">
+    <row r="86" spans="2:6" ht="17.25" thickBot="1">
       <c r="B86" s="20" t="s">
         <v>47</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="18" thickTop="1">
+    <row r="87" spans="2:6" ht="17.25" thickTop="1">
       <c r="B87" s="22" t="s">
         <v>48</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>1.423E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="18" thickBot="1">
+    <row r="97" spans="2:6" ht="17.25" thickBot="1">
       <c r="B97" s="20" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="18" thickTop="1">
+    <row r="98" spans="2:6" ht="17.25" thickTop="1">
       <c r="B98" s="22" t="s">
         <v>30</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>9.4600000000000004E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="18" thickBot="1">
+    <row r="108" spans="2:6" ht="17.25" thickBot="1">
       <c r="B108" s="20" t="s">
         <v>30</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>9.7100000000000006E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="18" thickTop="1">
+    <row r="109" spans="2:6" ht="17.25" thickTop="1">
       <c r="B109" s="22" t="s">
         <v>30</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="18" thickBot="1">
+    <row r="119" spans="2:6" ht="17.25" thickBot="1">
       <c r="B119" s="20" t="s">
         <v>30</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="18" thickTop="1">
+    <row r="120" spans="2:6" ht="17.25" thickTop="1">
       <c r="B120" s="22" t="s">
         <v>30</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>4.2759999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="18" thickBot="1">
+    <row r="130" spans="2:6" ht="17.25" thickBot="1">
       <c r="B130" s="20" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="18" thickTop="1">
+    <row r="131" spans="2:6" ht="17.25" thickTop="1">
       <c r="B131" s="22" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>5.2210000000000006E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="18" thickBot="1">
+    <row r="141" spans="2:6" ht="17.25" thickBot="1">
       <c r="B141" s="20" t="s">
         <v>30</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="18" thickTop="1">
+    <row r="142" spans="2:6" ht="17.25" thickTop="1">
       <c r="B142" s="22" t="s">
         <v>30</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>1.2070000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="18" thickBot="1">
+    <row r="152" spans="2:6" ht="17.25" thickBot="1">
       <c r="B152" s="20" t="s">
         <v>30</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="18" thickTop="1">
+    <row r="153" spans="2:6" ht="17.25" thickTop="1">
       <c r="B153" s="22" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>1.7829999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="18" thickBot="1">
+    <row r="163" spans="2:6" ht="17.25" thickBot="1">
       <c r="B163" s="20" t="s">
         <v>30</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="18" thickTop="1">
+    <row r="164" spans="2:6" ht="17.25" thickTop="1">
       <c r="B164" s="22" t="s">
         <v>32</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="18" thickBot="1">
+    <row r="174" spans="2:6" ht="17.25" thickBot="1">
       <c r="B174" s="20" t="s">
         <v>32</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="18" thickTop="1">
+    <row r="175" spans="2:6" ht="17.25" thickTop="1">
       <c r="B175" s="22" t="s">
         <v>32</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>4.5260000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="18" thickBot="1">
+    <row r="185" spans="2:6" ht="17.25" thickBot="1">
       <c r="B185" s="20" t="s">
         <v>32</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="18" thickTop="1">
+    <row r="186" spans="2:6" ht="17.25" thickTop="1">
       <c r="B186" s="22" t="s">
         <v>32</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>5.4710000000000009E-2</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="18" thickBot="1">
+    <row r="196" spans="2:6" ht="17.25" thickBot="1">
       <c r="B196" s="20" t="s">
         <v>32</v>
       </c>
@@ -4575,7 +4577,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="18" thickTop="1">
+    <row r="197" spans="2:6" ht="17.25" thickTop="1">
       <c r="B197" s="22" t="s">
         <v>32</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>1.4570000000000003E-2</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="18" thickBot="1">
+    <row r="207" spans="2:6" ht="17.25" thickBot="1">
       <c r="B207" s="20" t="s">
         <v>32</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="18" thickTop="1">
+    <row r="208" spans="2:6" ht="17.25" thickTop="1">
       <c r="B208" s="22" t="s">
         <v>32</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>2.0330000000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:6" ht="18" thickBot="1">
+    <row r="218" spans="2:6" ht="17.25" thickBot="1">
       <c r="B218" s="20" t="s">
         <v>32</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="219" spans="2:6" ht="18" thickTop="1">
+    <row r="219" spans="2:6" ht="17.25" thickTop="1">
       <c r="B219" s="22" t="s">
         <v>20</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>3.9759999999999997E-2</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="18" thickBot="1">
+    <row r="229" spans="2:6" ht="17.25" thickBot="1">
       <c r="B229" s="20" t="s">
         <v>20</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="230" spans="2:6" ht="18" thickTop="1">
+    <row r="230" spans="2:6" ht="17.25" thickTop="1">
       <c r="B230" s="22" t="s">
         <v>20</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>4.9210000000000004E-2</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="18" thickBot="1">
+    <row r="240" spans="2:6" ht="17.25" thickBot="1">
       <c r="B240" s="20" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="241" spans="2:6" ht="18" thickTop="1">
+    <row r="241" spans="2:6" ht="17.25" thickTop="1">
       <c r="B241" s="22" t="s">
         <v>20</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>9.0700000000000017E-3</v>
       </c>
     </row>
-    <row r="251" spans="2:6" ht="18" thickBot="1">
+    <row r="251" spans="2:6" ht="17.25" thickBot="1">
       <c r="B251" s="20" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:6" ht="18" thickTop="1">
+    <row r="252" spans="2:6" ht="17.25" thickTop="1">
       <c r="B252" s="22" t="s">
         <v>20</v>
       </c>
@@ -5745,7 +5747,7 @@
         <v>1.4829999999999999E-2</v>
       </c>
     </row>
-    <row r="262" spans="2:6" ht="18" thickBot="1">
+    <row r="262" spans="2:6" ht="17.25" thickBot="1">
       <c r="B262" s="20" t="s">
         <v>20</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="263" spans="2:6" ht="18" thickTop="1">
+    <row r="263" spans="2:6" ht="17.25" thickTop="1">
       <c r="B263" s="22" t="s">
         <v>40</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>4.8950000000000007E-2</v>
       </c>
     </row>
-    <row r="273" spans="2:6" ht="18" thickBot="1">
+    <row r="273" spans="2:6" ht="17.25" thickBot="1">
       <c r="B273" s="20" t="s">
         <v>40</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" spans="2:6" ht="18" thickTop="1">
+    <row r="274" spans="2:6" ht="17.25" thickTop="1">
       <c r="B274" s="22" t="s">
         <v>40</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>8.8100000000000019E-3</v>
       </c>
     </row>
-    <row r="284" spans="2:6" ht="18" thickBot="1">
+    <row r="284" spans="2:6" ht="17.25" thickBot="1">
       <c r="B284" s="20" t="s">
         <v>40</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:6" ht="18" thickTop="1">
+    <row r="285" spans="2:6" ht="17.25" thickTop="1">
       <c r="B285" s="22" t="s">
         <v>40</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>1.457E-2</v>
       </c>
     </row>
-    <row r="295" spans="2:6" ht="18" thickBot="1">
+    <row r="295" spans="2:6" ht="17.25" thickBot="1">
       <c r="B295" s="20" t="s">
         <v>40</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="296" spans="2:6" ht="18" thickTop="1">
+    <row r="296" spans="2:6" ht="17.25" thickTop="1">
       <c r="B296" s="22" t="s">
         <v>35</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>9.8600000000000007E-3</v>
       </c>
     </row>
-    <row r="306" spans="2:6" ht="18" thickBot="1">
+    <row r="306" spans="2:6" ht="17.25" thickBot="1">
       <c r="B306" s="20" t="s">
         <v>35</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="307" spans="2:6" ht="18" thickTop="1">
+    <row r="307" spans="2:6" ht="17.25" thickTop="1">
       <c r="B307" s="22" t="s">
         <v>35</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>1.562E-2</v>
       </c>
     </row>
-    <row r="317" spans="2:6" ht="18" thickBot="1">
+    <row r="317" spans="2:6" ht="17.25" thickBot="1">
       <c r="B317" s="20" t="s">
         <v>35</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="318" spans="2:6" ht="18" thickTop="1">
+    <row r="318" spans="2:6" ht="17.25" thickTop="1">
       <c r="B318" s="22" t="s">
         <v>37</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>1.116E-2</v>
       </c>
     </row>
-    <row r="328" spans="2:6" ht="18" thickBot="1">
+    <row r="328" spans="2:6" ht="17.25" thickBot="1">
       <c r="B328" s="20" t="s">
         <v>37</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="329" spans="2:6" ht="18" thickTop="1"/>
+    <row r="329" spans="2:6" ht="17.25" thickTop="1"/>
   </sheetData>
   <autoFilter ref="B20:F328" xr:uid="{B7B51BC1-7D2E-4025-AF36-876ED5266D03}"/>
   <mergeCells count="1">
@@ -6997,21 +6999,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE82BF5-4262-45B6-A7B1-1A3120EBE0BA}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
